--- a/test_files/LOADER Manage Existing ATB - Matched file.xlsx
+++ b/test_files/LOADER Manage Existing ATB - Matched file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIGNA12\Desktop\Coding Files\Rpa\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{764ECB7D-CD73-463B-A276-712504D21F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17423C52-3934-482C-963E-BD10194EA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="18432" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="18" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_Pval002" hidden="1">_ADFDI_LOV!$C$2:$J$2</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_Pval008" hidden="1">_ADFDI_LOV!$C$4:$D$4</definedName>
-    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_SearchDataSet" hidden="1">_ADFDI_LOV!$C$8:$AS$8</definedName>
+    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_SearchDataSet" hidden="1">_ADFDI_LOV!$C$8:$AT$8</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_SearchMode" hidden="1">_ADFDI_LOV!$C$6:$E$6</definedName>
     <definedName name="ROT12847789">Messages!$C$8:$D$9</definedName>
     <definedName name="ROT1705000763">Instructions!$C$5:$D$6</definedName>
@@ -55,7 +55,7 @@
     <author>ROBIN IGNACIO (Contractor)</author>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{14AA61FE-0C6A-4936-82BD-E25EACAD34E2}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{CDDFA8E2-6D0C-41F6-9EFD-A662C87E9718}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{14FE9016-5136-40AE-A7C9-5E8C2C8FB84C}">
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{E88D7BDF-B7D1-43D8-997A-9075758CB01B}">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
   <si>
     <t>11.1.1.7.5</t>
   </si>
@@ -403,12 +403,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>* Effective Start Date</t>
-  </si>
-  <si>
-    <t>Effective End Date</t>
-  </si>
-  <si>
     <t>* Set Code</t>
   </si>
   <si>
@@ -700,16 +694,40 @@
     <t>CSG_Manage Existing ATB#2023-07-13 06:40:31</t>
   </si>
   <si>
-    <t>&lt;ListItems&gt;&lt;Items&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB931B02&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 06:43:01&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79F9C7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-13 04:38:15&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79BB0D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 00:36:41&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79BB0A&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:48:50&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB6255F7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 05:26:32&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB61A6E7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 03:10:54&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB608351&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-14 09:17:08&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB606391&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:20:31&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB606384&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 04:55:43&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F916F&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:48:43&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F916E&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:26:13&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F86F7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 05:50:40&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5EC3ED&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 00:30:10&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5EAB0B&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 02:42:23&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E9367&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 02:06:16&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E92C3&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 06:24:19&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E8341&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 02:40:42&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E3069&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-13 06:40:31&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5C250C&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-29 06:53:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5BBA30&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 03:32:39&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB501E19&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 01:02:04&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB501E18&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:39:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB4FC710&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:16:47&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB1A2A26&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-06 04:03:42&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F329&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:16:54&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F324&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:13:25&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F31F&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:08:26&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C63&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 02:41:21&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C60&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 02:35:57&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C5D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 01:59:08&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD537&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:42:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD536&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:41:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD532&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:28:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:19:57&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52C&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:09:22&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52B&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:02:26&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF811BF17&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-25 02:52:55&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF811BF13&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-25 02:44:09&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AF&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:29:32&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AD&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:24:55&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AB&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:23:22&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271A9&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:11:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;/Items&gt;&lt;/ListItems&gt;</t>
-  </si>
-  <si>
     <t>CSG_Manage Existing ATB#2023-07-14 09:17:08</t>
   </si>
   <si>
     <t>CSG_Manage Existing ATB#2023-07-17 01:56:17</t>
   </si>
   <si>
-    <t>&lt;NameValuePairsXml&gt;&lt;Ids&gt;HeaderId&lt;/Ids&gt;&lt;Values&gt;300007682879595&lt;/Values&gt;&lt;/NameValuePairsXml&gt;</t>
+    <t>Worksheet_Status_Data</t>
+  </si>
+  <si>
+    <t>StatusMessage</t>
+  </si>
+  <si>
+    <t>&lt;ListItems&gt;&lt;Items&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB931B02&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 06:43:01&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79F9C7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-13 04:38:15&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79BB0D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 00:36:41&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB79BB0A&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:48:50&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB6255F7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 05:26:32&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB61A6E7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 03:10:54&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB608351&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-14 09:17:08&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB606391&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:20:31&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB606384&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 04:55:43&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F916F&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:48:43&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F916E&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:26:13&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5F86F7&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 05:50:40&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5EC3ED&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 00:30:10&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5EAB0B&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 02:42:23&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E9367&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-12 02:06:16&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E92C3&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 06:24:19&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E8341&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 02:40:42&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E306B&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-17 01:56:17&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5E3069&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-13 06:40:31&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5C250C&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-29 06:53:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB5BBA30&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-10 03:32:39&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB501E19&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 01:02:04&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB501E18&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-11 00:39:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB4FC710&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-07-09 14:16:47&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB1A2A26&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-06 04:03:42&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F329&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:16:54&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F324&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:13:25&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB19F31F&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-05 01:08:26&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C63&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 02:41:21&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C60&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 02:35:57&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAFB173C5D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-06-02 01:59:08&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD537&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:42:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD536&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:41:12&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD532&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:28:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52D&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:19:57&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52C&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:09:22&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF99AD52B&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-24 12:02:26&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF811BF17&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-25 02:52:55&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF811BF13&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-25 02:44:09&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AF&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:29:32&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AD&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:24:55&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271AB&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:23:22&lt;/Value&gt;&lt;/ListItem&gt;&lt;ListItem&gt;&lt;RowKey&gt;00010000000EACED00057708000110DAF58271A9&lt;/RowKey&gt;&lt;Value&gt;CSG_Manage Existing ATB#2023-05-19 08:11:33&lt;/Value&gt;&lt;/ListItem&gt;&lt;/Items&gt;&lt;/ListItems&gt;</t>
+  </si>
+  <si>
+    <t>CSG_Manage Existing ATB#2023-07-19 05:21:32</t>
+  </si>
+  <si>
+    <t>Effective Start Date</t>
+  </si>
+  <si>
+    <t>&lt;NameValuePairsXml&gt;&lt;Ids&gt;HeaderId&lt;/Ids&gt;&lt;Values&gt;300007682879601&lt;/Values&gt;&lt;/NameValuePairsXml&gt;</t>
+  </si>
+  <si>
+    <t>Action failed</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;ErrorsList&gt;&lt;SyncErrorMessage&gt;&lt;Summary&gt;invalid worksheet column index_x000D_
+Parameter name: iCol_x000D_
+Actual value was 0._x000D_
+&lt;/Summary&gt;&lt;Severity&gt;Error&lt;/Severity&gt;&lt;/SyncErrorMessage&gt;&lt;/ErrorsList&gt;</t>
+  </si>
+  <si>
+    <t>* Effective End Date</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1652,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4">
       <alignment vertical="center" wrapText="1"/>
@@ -1655,50 +1673,35 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="104">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="15" xfId="10" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="12" applyFill="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="101" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="6" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" quotePrefix="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98" quotePrefix="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyBorder="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="98" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyBorder="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="107">
     <cellStyle name="_ADFDI_DataEntryGridStyle" xfId="13" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2307,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="9" customHeight="1" thickTop="1"/>
@@ -2330,8 +2333,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="M17" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="14.4"/>
@@ -2342,206 +2345,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="C1" s="10" t="s">
-        <v>147</v>
+      <c r="C1" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="7.5" customHeight="1" thickTop="1"/>
     <row r="3" spans="2:3" ht="15" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>149</v>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:3" ht="18" customHeight="1">
-      <c r="B5" s="12" t="s">
-        <v>148</v>
+      <c r="B5" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>152</v>
+      <c r="B6" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="7.5" customHeight="1"/>
     <row r="8" spans="2:3" ht="23.1" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="2:3" ht="18" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>107</v>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="7.5" customHeight="1"/>
     <row r="11" spans="2:3" ht="18" customHeight="1">
-      <c r="B11" s="12" t="s">
-        <v>153</v>
+      <c r="B11" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>151</v>
+      <c r="B12" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="7.5" customHeight="1">
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="2:3" ht="23.1" customHeight="1">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="18" customHeight="1">
+      <c r="B17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" customHeight="1">
-      <c r="B15" s="14" t="s">
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="18" customHeight="1">
+      <c r="B18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="18" customHeight="1">
-      <c r="B16" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="18" customHeight="1">
-      <c r="B17" s="14" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" ht="18" customHeight="1">
+      <c r="B19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="18" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="2:14" ht="18" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:14" ht="7.5" customHeight="1"/>
     <row r="21" spans="2:14" ht="18" customHeight="1">
-      <c r="B21" s="12" t="s">
-        <v>154</v>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
-      <c r="B22" s="13" t="s">
-        <v>155</v>
+      <c r="B22" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1">
-      <c r="B23" s="13" t="s">
-        <v>150</v>
+      <c r="B23" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1">
-      <c r="B24" s="13"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="2:14" ht="16.05" customHeight="1">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="22"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="2:14" ht="27" customHeight="1">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="I26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="J26" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="K26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="L26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="M26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="N26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="27" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="27" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{274C0D12-41FF-40BF-9917-72A0E62EEA61}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{D373720B-A350-422A-B204-4CBC06F664DF}">
       <formula1>LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_SearchMode</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{1B9F1090-226C-418C-ABD4-EEEE5059B171}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{947C336F-60A1-415E-B3EC-C99DD4EF327A}">
       <formula1>LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_GenericHdlSpreadsheetPageDef_SearchDataSet</formula1>
     </dataValidation>
   </dataValidations>
@@ -2574,7 +2568,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="7.5" customHeight="1" thickTop="1"/>
@@ -2641,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2652,7 +2646,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="D2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -2719,7 +2713,7 @@
       </c>
       <c r="B5" t="str">
         <f>'Spreadsheet Loader'!$C$14</f>
-        <v>CSG_Manage Existing ATB#2023-07-17 01:56:17</v>
+        <v>CSG_Manage Existing ATB#2023-07-19 05:21:32</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -2762,7 +2756,7 @@
       </c>
       <c r="G7" t="str">
         <f>'Spreadsheet Loader'!$F$26</f>
-        <v>* Effective Start Date</v>
+        <v>Effective Start Date</v>
       </c>
       <c r="H7" t="str">
         <f>'Spreadsheet Loader'!$N$26</f>
@@ -3218,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90798B19-2066-47A1-8A59-30DCAC112332}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3293,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -3307,17 +3301,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" t="s">
         <v>173</v>
-      </c>
-      <c r="H8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3329,61 +3326,79 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <f>Instructions!1:1048576</f>
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" t="str">
         <f>'Spreadsheet Loader'!1:1048576</f>
         <v>Data Set and Template Details</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <f>Messages!1:1048576</f>
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <f>'Spreadsheet Loader'!1:1048576</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3468,11 +3483,11 @@
       </c>
       <c r="B3" t="str">
         <f>'Spreadsheet Loader'!$F$26</f>
-        <v>* Effective Start Date</v>
+        <v>Effective Start Date</v>
       </c>
       <c r="C3" t="str">
         <f>'Spreadsheet Loader'!$G$26</f>
-        <v>Effective End Date</v>
+        <v>* Effective End Date</v>
       </c>
       <c r="D3" t="str">
         <f>'Spreadsheet Loader'!$H$26</f>
@@ -3510,235 +3525,238 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BB0237-DA85-401D-AD0F-B15086726B3B}">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>104</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
         <v>108</v>
       </c>
-      <c r="B8">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
         <v>176</v>
       </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>111</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>112</v>
       </c>
-      <c r="J8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>113</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>114</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>115</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>116</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>117</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>118</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>119</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>120</v>
-      </c>
-      <c r="S8" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" t="s">
-        <v>122</v>
       </c>
       <c r="U8" t="s">
         <v>177</v>
       </c>
       <c r="V8" t="s">
+        <v>175</v>
+      </c>
+      <c r="W8" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" t="s">
         <v>123</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>124</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>125</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" t="s">
         <v>126</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AC8" t="s">
         <v>127</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
         <v>128</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>129</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AF8" t="s">
         <v>130</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AG8" t="s">
         <v>131</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
         <v>132</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AI8" t="s">
         <v>133</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
         <v>134</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AK8" t="s">
         <v>135</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AL8" t="s">
         <v>136</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AM8" t="s">
         <v>137</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AN8" t="s">
         <v>138</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AO8" t="s">
         <v>139</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AP8" t="s">
         <v>140</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AQ8" t="s">
         <v>141</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AR8" t="s">
         <v>142</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AS8" t="s">
         <v>143</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AT8" t="s">
         <v>144</v>
       </c>
-      <c r="AR8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
